--- a/Data/g14.1.xlsx
+++ b/Data/g14.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D2">
-        <v>2825</v>
+        <v>2874</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D3">
-        <v>2850</v>
+        <v>2910</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D4">
-        <v>2885</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D5">
-        <v>2857</v>
+        <v>2893</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D6">
-        <v>2869</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D7">
-        <v>2893</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D8">
-        <v>2914</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D9">
-        <v>2920</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D10">
-        <v>2909</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D11">
-        <v>2933</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D12">
-        <v>2948</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D13">
-        <v>2913</v>
+        <v>2943</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D14">
-        <v>2918</v>
+        <v>2969</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D15">
-        <v>2944</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>2978</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D17">
-        <v>2761</v>
+        <v>2887</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D18">
-        <v>2862</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>2915</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>2934</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D21">
-        <v>2933</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D22">
-        <v>2982</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D23">
-        <v>1898</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D24">
-        <v>1931</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D25">
-        <v>1991</v>
+        <v>1997</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D26">
-        <v>1989</v>
+        <v>1967</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D27">
-        <v>1959</v>
+        <v>2032</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>2025</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D29">
-        <v>2032</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D30">
-        <v>2030</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D31">
-        <v>2030</v>
+        <v>2054</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D32">
-        <v>2046</v>
+        <v>2061</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D33">
-        <v>2053</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D34">
-        <v>2031</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D35">
-        <v>2010</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D36">
-        <v>2040</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>2064</v>
+        <v>1864</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D38">
-        <v>1857</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D39">
-        <v>1938</v>
+        <v>1961</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>1953</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>2014</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>1997</v>
+        <v>2015</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D43">
-        <v>2008</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2016</t>
+          <t>01/10/2016</t>
         </is>
       </c>
       <c r="D44">
-        <v>2188</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D45">
-        <v>2296</v>
+        <v>2317</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D46">
-        <v>2310</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D47">
-        <v>2209</v>
+        <v>2101</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D48">
-        <v>2095</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D49">
-        <v>2038</v>
+        <v>2146</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D50">
-        <v>2140</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D51">
-        <v>2041</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D52">
-        <v>2151</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D53">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D54">
-        <v>2105</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D55">
-        <v>2036</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D56">
-        <v>2008</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D57">
-        <v>1993</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>2113</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>1950</v>
+        <v>2041</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D60">
-        <v>2035</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>2094</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>2104</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>2152</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D64">
-        <v>2058</v>
+        <v>2050</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.1.xlsx
+++ b/Data/g14.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D2">
-        <v>2874</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D3">
-        <v>2910</v>
+        <v>2925</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D4">
-        <v>2882</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D5">
-        <v>2893</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D6">
-        <v>2918</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D7">
-        <v>2939</v>
+        <v>2989</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D8">
-        <v>2945</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D9">
-        <v>2934</v>
+        <v>3002</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D10">
-        <v>2958</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D11">
-        <v>2974</v>
+        <v>2982</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D12">
-        <v>2938</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D13">
-        <v>2943</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D14">
-        <v>2969</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>3003</v>
+        <v>2827</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>2785</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D17">
-        <v>2887</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>2940</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>2959</v>
+        <v>3003</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>2958</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D21">
-        <v>3007</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>3032</v>
+        <v>3123</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D23">
-        <v>1938</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D24">
-        <v>1999</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D25">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D26">
-        <v>1967</v>
+        <v>2064</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D27">
-        <v>2032</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>2040</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D29">
-        <v>2037</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D30">
-        <v>2038</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D31">
-        <v>2054</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D32">
-        <v>2061</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D33">
-        <v>2038</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D34">
-        <v>2018</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D35">
-        <v>2048</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>2072</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>1864</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D38">
-        <v>1945</v>
+        <v>1992</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>1961</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>2021</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>2004</v>
+        <v>2047</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D42">
-        <v>2015</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>2040</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/10/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D44">
-        <v>2303</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D45">
-        <v>2317</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D46">
-        <v>2216</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D47">
-        <v>2101</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D48">
-        <v>2044</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D49">
-        <v>2146</v>
+        <v>2078</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D50">
-        <v>2047</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D51">
-        <v>2157</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D52">
-        <v>2116</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D53">
-        <v>2111</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D54">
-        <v>2042</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D55">
-        <v>2013</v>
+        <v>2029</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D56">
-        <v>1999</v>
+        <v>2150</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>2119</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>1956</v>
+        <v>2072</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D59">
-        <v>2041</v>
+        <v>2131</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>2100</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>2111</v>
+        <v>2191</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>2159</v>
+        <v>2094</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D63">
-        <v>2063</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>2050</v>
+        <v>2168</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.1.xlsx
+++ b/Data/g14.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D2">
-        <v>2953</v>
+        <v>2958</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D3">
-        <v>2925</v>
+        <v>2970</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D4">
-        <v>2937</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D5">
-        <v>2962</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D6">
-        <v>2983</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D7">
-        <v>2989</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D8">
-        <v>2978</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D9">
-        <v>3002</v>
+        <v>3053</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D10">
-        <v>3018</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D11">
-        <v>2982</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D12">
-        <v>2987</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D13">
-        <v>3014</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D14">
-        <v>3048</v>
+        <v>2859</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>2827</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D16">
-        <v>2930</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>2984</v>
+        <v>3038</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>3004</v>
+        <v>3037</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>3003</v>
+        <v>3088</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D20">
-        <v>3053</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D21">
-        <v>3077</v>
+        <v>3158</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>3123</v>
+        <v>3214</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D23">
-        <v>2030</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D24">
-        <v>2028</v>
+        <v>2024</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D25">
-        <v>1998</v>
+        <v>2092</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D26">
-        <v>2064</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D27">
-        <v>2072</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>2070</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D29">
-        <v>2070</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D30">
-        <v>2086</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D31">
-        <v>2093</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D32">
-        <v>2070</v>
+        <v>2077</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D33">
-        <v>2050</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D34">
-        <v>2080</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D35">
-        <v>2105</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>1893</v>
+        <v>2003</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D37">
-        <v>1976</v>
+        <v>2018</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>1992</v>
+        <v>2081</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>2053</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>2036</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D41">
-        <v>2047</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D42">
-        <v>2072</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>2104</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D44">
-        <v>2352</v>
+        <v>2292</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D45">
-        <v>2249</v>
+        <v>2174</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D46">
-        <v>2133</v>
+        <v>2115</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D47">
-        <v>2075</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D48">
-        <v>2179</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D49">
-        <v>2078</v>
+        <v>2231</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D50">
-        <v>2189</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D51">
-        <v>2147</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D52">
-        <v>2142</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D53">
-        <v>2073</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D54">
-        <v>2044</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D55">
-        <v>2029</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D56">
-        <v>2150</v>
+        <v>2023</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>1985</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D58">
-        <v>2072</v>
+        <v>2172</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>2131</v>
+        <v>2183</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>2142</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>2191</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D62">
-        <v>2094</v>
+        <v>2121</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D63">
-        <v>2081</v>
+        <v>2210</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>2168</v>
+        <v>2293</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.1.xlsx
+++ b/Data/g14.1.xlsx
@@ -392,11 +392,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D2">
-        <v>2958</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +412,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D3">
-        <v>2970</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +432,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D4">
-        <v>2996</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +452,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D5">
-        <v>3017</v>
+        <v>3047</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +472,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D6">
-        <v>3023</v>
+        <v>3036</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +492,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D7">
-        <v>3012</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +512,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D8">
-        <v>3036</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +532,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D9">
-        <v>3053</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +552,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D10">
-        <v>3016</v>
+        <v>3045</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +572,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D11">
-        <v>3021</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +592,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D12">
-        <v>3048</v>
+        <v>3108</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +612,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D13">
-        <v>3083</v>
+        <v>2882</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +632,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D14">
-        <v>2859</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +652,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D15">
-        <v>2963</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +672,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D16">
-        <v>3018</v>
+        <v>3062</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +692,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D17">
-        <v>3038</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +712,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D18">
-        <v>3037</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +732,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D19">
-        <v>3088</v>
+        <v>3137</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +752,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D20">
-        <v>3113</v>
+        <v>3183</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +772,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D21">
-        <v>3158</v>
+        <v>3239</v>
       </c>
     </row>
     <row r="22">
@@ -792,11 +792,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D22">
-        <v>3214</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="23">
@@ -812,11 +812,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D23">
-        <v>2055</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="24">
@@ -832,11 +832,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D24">
-        <v>2024</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="25">
@@ -852,11 +852,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D25">
-        <v>2092</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="26">
@@ -872,11 +872,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D26">
-        <v>2099</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="27">
@@ -892,11 +892,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D27">
-        <v>2097</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="28">
@@ -912,11 +912,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D28">
-        <v>2097</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="29">
@@ -932,11 +932,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D29">
-        <v>2114</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="30">
@@ -952,11 +952,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D30">
-        <v>2121</v>
+        <v>2110</v>
       </c>
     </row>
     <row r="31">
@@ -972,11 +972,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D31">
-        <v>2098</v>
+        <v>2089</v>
       </c>
     </row>
     <row r="32">
@@ -992,11 +992,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D32">
-        <v>2077</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="33">
@@ -1012,11 +1012,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D33">
-        <v>2108</v>
+        <v>2145</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1032,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D34">
-        <v>2133</v>
+        <v>1930</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1052,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D35">
-        <v>1919</v>
+        <v>2014</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1072,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D36">
-        <v>2003</v>
+        <v>2030</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1092,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D37">
-        <v>2018</v>
+        <v>2093</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1112,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D38">
-        <v>2081</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1132,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D39">
-        <v>2063</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1152,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D40">
-        <v>2075</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1172,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D41">
-        <v>2100</v>
+        <v>2144</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D42">
-        <v>2132</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="43">
@@ -1212,11 +1212,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D43">
-        <v>2238</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="44">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D44">
-        <v>2292</v>
+        <v>2179</v>
       </c>
     </row>
     <row r="45">
@@ -1252,11 +1252,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D45">
-        <v>2174</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="46">
@@ -1272,11 +1272,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D46">
-        <v>2115</v>
+        <v>2226</v>
       </c>
     </row>
     <row r="47">
@@ -1292,11 +1292,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D47">
-        <v>2220</v>
+        <v>2122</v>
       </c>
     </row>
     <row r="48">
@@ -1312,11 +1312,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D48">
-        <v>2117</v>
+        <v>2237</v>
       </c>
     </row>
     <row r="49">
@@ -1332,11 +1332,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D49">
-        <v>2231</v>
+        <v>2194</v>
       </c>
     </row>
     <row r="50">
@@ -1352,11 +1352,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D50">
-        <v>2188</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="51">
@@ -1372,11 +1372,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D51">
-        <v>2183</v>
+        <v>2117</v>
       </c>
     </row>
     <row r="52">
@@ -1392,11 +1392,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D52">
-        <v>2112</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="53">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D53">
-        <v>2083</v>
+        <v>2073</v>
       </c>
     </row>
     <row r="54">
@@ -1432,11 +1432,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D54">
-        <v>2068</v>
+        <v>2197</v>
       </c>
     </row>
     <row r="55">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D55">
-        <v>2192</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="56">
@@ -1472,11 +1472,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D56">
-        <v>2023</v>
+        <v>2116</v>
       </c>
     </row>
     <row r="57">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D57">
-        <v>2111</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="58">
@@ -1512,11 +1512,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D58">
-        <v>2172</v>
+        <v>2188</v>
       </c>
     </row>
     <row r="59">
@@ -1532,11 +1532,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D59">
-        <v>2183</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="60">
@@ -1552,11 +1552,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D60">
-        <v>2233</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="61">
@@ -1572,11 +1572,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D61">
-        <v>2135</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="62">
@@ -1592,11 +1592,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D62">
-        <v>2121</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="63">
@@ -1612,11 +1612,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D63">
-        <v>2210</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="64">
@@ -1632,11 +1632,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D64">
-        <v>2293</v>
+        <v>2344</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g14.1.xlsx
+++ b/Data/g14.1.xlsx
@@ -1,46 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,21 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -350,14 +420,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Região</t>
@@ -392,11 +468,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D2">
-        <v>2994</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4424</v>
       </c>
     </row>
     <row r="3">
@@ -412,11 +488,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
-        </is>
-      </c>
-      <c r="D3">
-        <v>3020</v>
+          <t>01/04/2017</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4370</v>
       </c>
     </row>
     <row r="4">
@@ -432,11 +508,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D4">
-        <v>3041</v>
+          <t>01/07/2017</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4385</v>
       </c>
     </row>
     <row r="5">
@@ -452,11 +528,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
-        </is>
-      </c>
-      <c r="D5">
-        <v>3047</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4408</v>
       </c>
     </row>
     <row r="6">
@@ -472,11 +548,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D6">
-        <v>3036</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4292</v>
       </c>
     </row>
     <row r="7">
@@ -492,11 +568,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
-        </is>
-      </c>
-      <c r="D7">
-        <v>3061</v>
+          <t>01/04/2018</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4290</v>
       </c>
     </row>
     <row r="8">
@@ -512,11 +588,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D8">
-        <v>3077</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4285</v>
       </c>
     </row>
     <row r="9">
@@ -532,11 +608,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
-        </is>
-      </c>
-      <c r="D9">
-        <v>3041</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4307</v>
       </c>
     </row>
     <row r="10">
@@ -552,11 +628,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D10">
-        <v>3045</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4155</v>
       </c>
     </row>
     <row r="11">
@@ -572,11 +648,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D11">
-        <v>3072</v>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4099</v>
       </c>
     </row>
     <row r="12">
@@ -592,11 +668,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D12">
-        <v>3108</v>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4107</v>
       </c>
     </row>
     <row r="13">
@@ -612,11 +688,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>2882</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4136</v>
       </c>
     </row>
     <row r="14">
@@ -632,11 +708,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D14">
-        <v>2987</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4013</v>
       </c>
     </row>
     <row r="15">
@@ -652,11 +728,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D15">
-        <v>3042</v>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4196</v>
       </c>
     </row>
     <row r="16">
@@ -672,11 +748,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D16">
-        <v>3062</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4245</v>
       </c>
     </row>
     <row r="17">
@@ -692,11 +768,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D17">
-        <v>3061</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4081</v>
       </c>
     </row>
     <row r="18">
@@ -712,11 +788,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D18">
-        <v>3112</v>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>3665</v>
       </c>
     </row>
     <row r="19">
@@ -732,11 +808,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="D19">
-        <v>3137</v>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>3550</v>
       </c>
     </row>
     <row r="20">
@@ -752,11 +828,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D20">
-        <v>3183</v>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>3413</v>
       </c>
     </row>
     <row r="21">
@@ -772,11 +848,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D21">
-        <v>3239</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>3300</v>
       </c>
     </row>
     <row r="22">
@@ -792,17 +868,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D22">
-        <v>3227</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>3175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -812,17 +888,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D23">
-        <v>2036</v>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>3194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -832,17 +908,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
-        </is>
-      </c>
-      <c r="D24">
-        <v>2104</v>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>3307</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -852,17 +928,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D25">
-        <v>2111</v>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>3371</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -872,17 +948,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
-        </is>
-      </c>
-      <c r="D26">
-        <v>2109</v>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>3247</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -892,17 +968,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D27">
-        <v>2109</v>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3241</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -912,17 +988,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
-        </is>
-      </c>
-      <c r="D28">
-        <v>2126</v>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>3301</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -932,17 +1008,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D29">
-        <v>2133</v>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>3324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -952,17 +1028,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>2110</v>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>3215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -972,17 +1048,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>2089</v>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>3263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -992,17 +1068,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D32">
-        <v>2120</v>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>3256</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1012,11 +1088,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D33">
-        <v>2145</v>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>3299</v>
       </c>
     </row>
     <row r="34">
@@ -1032,11 +1108,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
-        </is>
-      </c>
-      <c r="D34">
-        <v>1930</v>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>3000</v>
       </c>
     </row>
     <row r="35">
@@ -1052,11 +1128,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
-        </is>
-      </c>
-      <c r="D35">
-        <v>2014</v>
+          <t>01/04/2017</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2984</v>
       </c>
     </row>
     <row r="36">
@@ -1072,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
-        </is>
-      </c>
-      <c r="D36">
-        <v>2030</v>
+          <t>01/07/2017</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2930</v>
       </c>
     </row>
     <row r="37">
@@ -1092,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
-        </is>
-      </c>
-      <c r="D37">
-        <v>2093</v>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>3027</v>
       </c>
     </row>
     <row r="38">
@@ -1112,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
-        </is>
-      </c>
-      <c r="D38">
-        <v>2075</v>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2941</v>
       </c>
     </row>
     <row r="39">
@@ -1132,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
-        </is>
-      </c>
-      <c r="D39">
-        <v>2086</v>
+          <t>01/04/2018</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>2925</v>
       </c>
     </row>
     <row r="40">
@@ -1152,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
-        </is>
-      </c>
-      <c r="D40">
-        <v>2112</v>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2937</v>
       </c>
     </row>
     <row r="41">
@@ -1172,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
-        </is>
-      </c>
-      <c r="D41">
-        <v>2144</v>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2948</v>
       </c>
     </row>
     <row r="42">
@@ -1192,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
-        </is>
-      </c>
-      <c r="D42">
-        <v>2251</v>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2840</v>
       </c>
     </row>
     <row r="43">
@@ -1212,17 +1288,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
-        </is>
-      </c>
-      <c r="D43">
-        <v>2216</v>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2816</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1232,17 +1308,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
-        </is>
-      </c>
-      <c r="D44">
-        <v>2179</v>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>2787</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1252,17 +1328,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
-        </is>
-      </c>
-      <c r="D45">
-        <v>2120</v>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2817</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1272,17 +1348,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
-        </is>
-      </c>
-      <c r="D46">
-        <v>2226</v>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2734</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1292,17 +1368,17 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
-        </is>
-      </c>
-      <c r="D47">
-        <v>2122</v>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>2885</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1312,17 +1388,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
-        </is>
-      </c>
-      <c r="D48">
-        <v>2237</v>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2796</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1332,17 +1408,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
-        </is>
-      </c>
-      <c r="D49">
-        <v>2194</v>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2716</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1352,17 +1428,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
-        </is>
-      </c>
-      <c r="D50">
-        <v>2189</v>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>2417</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1372,17 +1448,17 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
-        </is>
-      </c>
-      <c r="D51">
-        <v>2117</v>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2390</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1392,17 +1468,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
-        </is>
-      </c>
-      <c r="D52">
-        <v>2088</v>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2300</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1412,17 +1488,17 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
-        </is>
-      </c>
-      <c r="D53">
-        <v>2073</v>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>2226</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1432,17 +1508,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
-        </is>
-      </c>
-      <c r="D54">
-        <v>2197</v>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2112</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1455,14 +1531,14 @@
           <t>01/04/2022</t>
         </is>
       </c>
-      <c r="D55">
-        <v>2028</v>
+      <c r="D55" t="n">
+        <v>2110</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1475,14 +1551,14 @@
           <t>01/07/2022</t>
         </is>
       </c>
-      <c r="D56">
-        <v>2116</v>
+      <c r="D56" t="n">
+        <v>2189</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1495,14 +1571,14 @@
           <t>01/10/2022</t>
         </is>
       </c>
-      <c r="D57">
-        <v>2177</v>
+      <c r="D57" t="n">
+        <v>2220</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1515,14 +1591,14 @@
           <t>01/01/2023</t>
         </is>
       </c>
-      <c r="D58">
-        <v>2188</v>
+      <c r="D58" t="n">
+        <v>2178</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1535,14 +1611,14 @@
           <t>01/04/2023</t>
         </is>
       </c>
-      <c r="D59">
-        <v>2238</v>
+      <c r="D59" t="n">
+        <v>2172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1555,14 +1631,14 @@
           <t>01/07/2023</t>
         </is>
       </c>
-      <c r="D60">
-        <v>2140</v>
+      <c r="D60" t="n">
+        <v>2183</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1575,14 +1651,14 @@
           <t>01/10/2023</t>
         </is>
       </c>
-      <c r="D61">
-        <v>2126</v>
+      <c r="D61" t="n">
+        <v>2209</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1595,14 +1671,14 @@
           <t>01/01/2024</t>
         </is>
       </c>
-      <c r="D62">
-        <v>2215</v>
+      <c r="D62" t="n">
+        <v>2146</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1615,14 +1691,14 @@
           <t>01/04/2024</t>
         </is>
       </c>
-      <c r="D63">
-        <v>2298</v>
+      <c r="D63" t="n">
+        <v>2245</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1635,11 +1711,671 @@
           <t>01/07/2024</t>
         </is>
       </c>
-      <c r="D64">
-        <v>2344</v>
+      <c r="D64" t="n">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Nordeste</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>01/04/2017</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>01/07/2017</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3173</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>01/10/2017</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>3083</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3107</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>01/04/2018</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>01/07/2018</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>3097</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>01/10/2018</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>01/04/2019</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>01/07/2019</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2785</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>01/10/2019</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>2766</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>01/04/2020</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>01/07/2020</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2826</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>01/10/2020</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>2445</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>01/04/2021</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>01/07/2021</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>2469</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>01/10/2021</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>01/04/2022</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>01/07/2022</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>01/10/2022</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>2295</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>01/10/2024</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2477</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Data/g14.1.xlsx
+++ b/Data/g14.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4424</v>
+        <v>4639</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4370</v>
+        <v>4584</v>
       </c>
     </row>
     <row r="4">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4385</v>
+        <v>4599</v>
       </c>
     </row>
     <row r="5">
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4408</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4292</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="7">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4290</v>
+        <v>4501</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4285</v>
+        <v>4494</v>
       </c>
     </row>
     <row r="9">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4307</v>
+        <v>4517</v>
       </c>
     </row>
     <row r="10">
@@ -632,7 +632,7 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4155</v>
+        <v>4357</v>
       </c>
     </row>
     <row r="11">
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4099</v>
+        <v>4298</v>
       </c>
     </row>
     <row r="12">
@@ -672,7 +672,7 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4107</v>
+        <v>4307</v>
       </c>
     </row>
     <row r="13">
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4136</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="14">
@@ -712,7 +712,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4013</v>
+        <v>4210</v>
       </c>
     </row>
     <row r="15">
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4196</v>
+        <v>4402</v>
       </c>
     </row>
     <row r="16">
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4245</v>
+        <v>4452</v>
       </c>
     </row>
     <row r="17">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4081</v>
+        <v>4280</v>
       </c>
     </row>
     <row r="18">
@@ -792,7 +792,7 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3665</v>
+        <v>3843</v>
       </c>
     </row>
     <row r="19">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3550</v>
+        <v>3723</v>
       </c>
     </row>
     <row r="20">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>3413</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="21">
@@ -852,7 +852,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3300</v>
+        <v>3461</v>
       </c>
     </row>
     <row r="22">
@@ -872,7 +872,7 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>3175</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="23">
@@ -892,7 +892,7 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3194</v>
+        <v>3349</v>
       </c>
     </row>
     <row r="24">
@@ -912,7 +912,7 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>3307</v>
+        <v>3467</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>3371</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="26">
@@ -952,7 +952,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3247</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="27">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3241</v>
+        <v>3399</v>
       </c>
     </row>
     <row r="28">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>3301</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="29">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3324</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="30">
@@ -1032,7 +1032,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3215</v>
+        <v>3371</v>
       </c>
     </row>
     <row r="31">
@@ -1052,7 +1052,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>3263</v>
+        <v>3421</v>
       </c>
     </row>
     <row r="32">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3256</v>
+        <v>3415</v>
       </c>
     </row>
     <row r="33">
@@ -1092,13 +1092,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>3299</v>
+        <v>3459</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3000</v>
+        <v>3367</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1128,17 +1128,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>2984</v>
+        <v>3388</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1148,11 +1148,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>2930</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="37">
@@ -1168,11 +1168,11 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>3027</v>
+        <v>3144</v>
       </c>
     </row>
     <row r="38">
@@ -1188,11 +1188,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2941</v>
+        <v>3128</v>
       </c>
     </row>
     <row r="39">
@@ -1208,11 +1208,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2925</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="40">
@@ -1228,11 +1228,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2937</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="41">
@@ -1248,11 +1248,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>2948</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="42">
@@ -1268,11 +1268,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2840</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="43">
@@ -1288,11 +1288,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2816</v>
+        <v>3077</v>
       </c>
     </row>
     <row r="44">
@@ -1308,11 +1308,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2787</v>
+        <v>3090</v>
       </c>
     </row>
     <row r="45">
@@ -1328,11 +1328,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2817</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="46">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2734</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="47">
@@ -1368,11 +1368,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2885</v>
+        <v>2921</v>
       </c>
     </row>
     <row r="48">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2796</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="49">
@@ -1408,11 +1408,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2716</v>
+        <v>2865</v>
       </c>
     </row>
     <row r="50">
@@ -1428,11 +1428,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>2417</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="51">
@@ -1448,11 +1448,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2390</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="52">
@@ -1468,11 +1468,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2300</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="53">
@@ -1488,11 +1488,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2226</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="54">
@@ -1508,11 +1508,11 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2112</v>
+        <v>2504</v>
       </c>
     </row>
     <row r="55">
@@ -1528,11 +1528,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>2110</v>
+        <v>2411</v>
       </c>
     </row>
     <row r="56">
@@ -1548,11 +1548,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2189</v>
+        <v>2333</v>
       </c>
     </row>
     <row r="57">
@@ -1568,11 +1568,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2220</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="58">
@@ -1588,11 +1588,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>2178</v>
+        <v>2212</v>
       </c>
     </row>
     <row r="59">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>2172</v>
+        <v>2294</v>
       </c>
     </row>
     <row r="60">
@@ -1628,11 +1628,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2183</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="61">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>2209</v>
+        <v>2283</v>
       </c>
     </row>
     <row r="62">
@@ -1668,11 +1668,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/04/2023</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2146</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="63">
@@ -1688,11 +1688,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/07/2023</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2245</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="64">
@@ -1708,11 +1708,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/10/2023</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2207</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="65">
@@ -1728,17 +1728,17 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>01/10/2024</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2252</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1748,17 +1748,17 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/04/2024</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>3478</v>
+        <v>2352</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1768,17 +1768,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>01/04/2017</t>
+          <t>01/07/2024</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>3326</v>
+        <v>2313</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1788,17 +1788,17 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>01/07/2017</t>
+          <t>01/10/2024</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>3173</v>
+        <v>2361</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -1808,17 +1808,17 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>01/10/2017</t>
+          <t>01/01/2025</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3083</v>
+        <v>2318</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1828,17 +1828,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/04/2025</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>3107</v>
+        <v>2323</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1848,11 +1848,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>01/04/2018</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>2962</v>
+        <v>2338</v>
       </c>
     </row>
     <row r="72">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>01/07/2018</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3097</v>
+        <v>3643</v>
       </c>
     </row>
     <row r="73">
@@ -1888,11 +1888,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>01/10/2018</t>
+          <t>01/04/2017</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>3021</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="74">
@@ -1908,11 +1908,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/07/2017</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2872</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="75">
@@ -1928,11 +1928,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>01/04/2019</t>
+          <t>01/10/2017</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2816</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="76">
@@ -1948,11 +1948,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>01/07/2019</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2785</v>
+        <v>3254</v>
       </c>
     </row>
     <row r="77">
@@ -1968,11 +1968,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>01/10/2019</t>
+          <t>01/04/2018</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>2708</v>
+        <v>3103</v>
       </c>
     </row>
     <row r="78">
@@ -1988,11 +1988,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/07/2018</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>2766</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="79">
@@ -2008,11 +2008,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>01/04/2020</t>
+          <t>01/10/2018</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2945</v>
+        <v>3164</v>
       </c>
     </row>
     <row r="80">
@@ -2028,11 +2028,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>01/07/2020</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2826</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="81">
@@ -2048,11 +2048,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>01/10/2020</t>
+          <t>01/04/2019</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>2985</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="82">
@@ -2068,11 +2068,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/07/2019</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>2445</v>
+        <v>2918</v>
       </c>
     </row>
     <row r="83">
@@ -2088,11 +2088,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>01/04/2021</t>
+          <t>01/10/2019</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2634</v>
+        <v>2836</v>
       </c>
     </row>
     <row r="84">
@@ -2108,11 +2108,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>01/07/2021</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>2469</v>
+        <v>2897</v>
       </c>
     </row>
     <row r="85">
@@ -2128,11 +2128,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>01/10/2021</t>
+          <t>01/04/2020</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>2399</v>
+        <v>3085</v>
       </c>
     </row>
     <row r="86">
@@ -2148,11 +2148,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/07/2020</t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>2155</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="87">
@@ -2168,11 +2168,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>01/04/2022</t>
+          <t>01/10/2020</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>2163</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="88">
@@ -2188,11 +2188,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>01/07/2022</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="D88" t="n">
-        <v>2262</v>
+        <v>2561</v>
       </c>
     </row>
     <row r="89">
@@ -2208,11 +2208,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>01/10/2022</t>
+          <t>01/04/2021</t>
         </is>
       </c>
       <c r="D89" t="n">
-        <v>2316</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="90">
@@ -2228,11 +2228,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/07/2021</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>2247</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="91">
@@ -2248,11 +2248,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>01/04/2023</t>
+          <t>01/10/2021</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>2295</v>
+        <v>2513</v>
       </c>
     </row>
     <row r="92">
@@ -2268,11 +2268,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>01/07/2023</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>2215</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="93">
@@ -2288,11 +2288,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>01/10/2023</t>
+          <t>01/04/2022</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2185</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="94">
@@ -2308,11 +2308,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>01/01/2024</t>
+          <t>01/07/2022</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2147</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="95">
@@ -2328,11 +2328,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>01/04/2024</t>
+          <t>01/10/2022</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>2265</v>
+        <v>2425</v>
       </c>
     </row>
     <row r="96">
@@ -2348,11 +2348,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>01/07/2024</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>2291</v>
+        <v>2353</v>
       </c>
     </row>
     <row r="97">
@@ -2368,11 +2368,191 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>01/04/2023</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>01/07/2023</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>01/10/2023</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>01/04/2024</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>01/07/2024</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
           <t>01/10/2024</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>2477</v>
+      <c r="D103" t="n">
+        <v>2594</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>01/01/2025</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>01/04/2025</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>2436</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Rendimento médio mensal real das pessoas de 14 anos ou mais de idade ocupadas na semana de referência com rendimento de trabalho, habitualmente recebido em todos os trabalhos</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>01/07/2025</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>2713</v>
       </c>
     </row>
   </sheetData>
